--- a/mad_test_2/AB12-6_AB10-bot reduction.xlsx
+++ b/mad_test_2/AB12-6_AB10-bot reduction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/tigerb_mit_edu/Documents/Documents/MIT-WHOI stuff/other_projs/U-Th software/mad_test_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/tigerb_mit_edu/Documents/Documents/GitHub/U_Th_dating/mad_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF93B1D-9213-4228-84C1-6E33F9311333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{7CF93B1D-9213-4228-84C1-6E33F9311333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984C0FC3-491C-4091-A6E4-C66C6CB79EE6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U-Th data" sheetId="9" r:id="rId1"/>
@@ -3274,7 +3274,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="1203" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="Bad" xfId="1267" builtinId="27"/>
@@ -4938,21 +4939,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5802,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B62"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6204,8 +6205,8 @@
         <f>Z4*AY4*232*E4</f>
         <v>0.31807395611086225</v>
       </c>
-      <c r="P4" s="38">
-        <f>MAX(E$4*AZ$4*AD$4*234*1000,Q4/15)</f>
+      <c r="P4" s="92">
+        <f>MAX(E$4*AZ$4*AD$4*234*1000, Q4/15)</f>
         <v>0.24690791130277173</v>
       </c>
       <c r="Q4" s="38">
@@ -12571,9 +12572,6 @@
       </c>
       <c r="M40">
         <v>54264.1420376776</v>
-      </c>
-      <c r="N40">
-        <v>398.51909564263798</v>
       </c>
       <c r="O40">
         <v>53481.246356897602</v>
@@ -42825,6 +42823,19 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <x14:cfRule type="expression" priority="15" id="{069C5E89-77CD-AB4F-B109-7C367E52547F}">
+            <xm:f>AND(NOT(ISBLANK(B5)),AR5&gt;(Constants!$B$38*AQ5))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="expression" priority="17" id="{EB4CD11B-4043-0640-BA98-EB4DF1B16716}">
             <xm:f>AND(NOT(ISBLANK(B5)),(AR5-AQ5)&gt;Constants!$B$37)</xm:f>
             <x14:dxf>
@@ -42834,19 +42845,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="15" id="{069C5E89-77CD-AB4F-B109-7C367E52547F}">
-            <xm:f>AND(NOT(ISBLANK(B5)),AR5&gt;(Constants!$B$38*AQ5))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -44285,7 +44283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4705D6-4630-4BD3-8225-74831985CAC2}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/mad_test_2/AB12-6_AB10-bot reduction.xlsx
+++ b/mad_test_2/AB12-6_AB10-bot reduction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/tigerb_mit_edu/Documents/Documents/GitHub/U_Th_dating/mad_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{7CF93B1D-9213-4228-84C1-6E33F9311333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C149C7C1-03F7-479C-90BD-A1D37B8F10E5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{7CF93B1D-9213-4228-84C1-6E33F9311333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499F9F48-061A-4841-92EA-EE53E1E965B5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U-Th data" sheetId="9" r:id="rId1"/>
@@ -1462,7 +1462,7 @@
     <numFmt numFmtId="171" formatCode="0.0E+00"/>
     <numFmt numFmtId="172" formatCode="0.00000E+00"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -3383,6 +3383,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3395,10 +3399,6 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="0" xfId="1203" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="Bad" xfId="1267" builtinId="27"/>
@@ -5810,28 +5810,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.8125" customWidth="1"/>
-    <col min="2" max="2" width="21.6875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.375" customWidth="1"/>
-    <col min="37" max="37" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.25" bestFit="1" customWidth="1"/>
     <col min="44" max="48" width="11" customWidth="1"/>
-    <col min="49" max="49" width="12.1875" customWidth="1"/>
+    <col min="49" max="49" width="12.25" customWidth="1"/>
     <col min="50" max="52" width="11" customWidth="1"/>
-    <col min="53" max="53" width="11.1875" customWidth="1"/>
+    <col min="53" max="53" width="11.25" customWidth="1"/>
     <col min="54" max="54" width="11" customWidth="1"/>
-    <col min="55" max="55" width="12.1875" customWidth="1"/>
+    <col min="55" max="55" width="12.25" customWidth="1"/>
     <col min="56" max="76" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5914,37 +5914,37 @@
       <c r="AE2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BE2" s="87" t="s">
+      <c r="BE2" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87" t="s">
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="87" t="s">
+      <c r="BI2" s="91"/>
+      <c r="BJ2" s="91"/>
+      <c r="BK2" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="87" t="s">
+      <c r="BL2" s="91"/>
+      <c r="BM2" s="91"/>
+      <c r="BN2" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="BO2" s="87"/>
-      <c r="BP2" s="87"/>
+      <c r="BO2" s="91"/>
+      <c r="BP2" s="91"/>
       <c r="BQ2" s="75"/>
-      <c r="BR2" s="87" t="s">
+      <c r="BR2" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="BS2" s="87"/>
-      <c r="BT2" s="87"/>
-      <c r="BU2" s="87" t="s">
+      <c r="BS2" s="91"/>
+      <c r="BT2" s="91"/>
+      <c r="BU2" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="BV2" s="87"/>
-      <c r="BW2" s="87"/>
+      <c r="BV2" s="91"/>
+      <c r="BW2" s="91"/>
       <c r="BX2" s="75"/>
     </row>
     <row r="3" spans="1:79">
@@ -11666,7 +11666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:79" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:79" ht="16.5" thickBot="1">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62" t="s">
@@ -13954,7 +13954,7 @@
   <dimension ref="A1:DE93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
@@ -13964,12 +13964,12 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" customWidth="1"/>
-    <col min="5" max="8" width="12.3125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="12.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="8" width="12.375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="69" max="69" width="12.1875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.1875" customWidth="1"/>
+    <col min="69" max="69" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.25" customWidth="1"/>
     <col min="83" max="83" width="11.5" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11.5" customWidth="1"/>
     <col min="103" max="109" width="11" style="74"/>
@@ -14008,28 +14008,28 @@
         <v>133</v>
       </c>
       <c r="CN2" s="2"/>
-      <c r="CQ2" s="88" t="s">
+      <c r="CQ2" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="CR2" s="88"/>
-      <c r="CS2" s="88"/>
-      <c r="CT2" s="88" t="s">
+      <c r="CR2" s="92"/>
+      <c r="CS2" s="92"/>
+      <c r="CT2" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="CU2" s="88"/>
-      <c r="CV2" s="88"/>
-      <c r="CW2" s="88"/>
-      <c r="CY2" s="89" t="s">
+      <c r="CU2" s="92"/>
+      <c r="CV2" s="92"/>
+      <c r="CW2" s="92"/>
+      <c r="CY2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="CZ2" s="89"/>
-      <c r="DA2" s="89"/>
-      <c r="DB2" s="89" t="s">
+      <c r="CZ2" s="93"/>
+      <c r="DA2" s="93"/>
+      <c r="DB2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="DC2" s="89"/>
-      <c r="DD2" s="89"/>
-      <c r="DE2" s="89"/>
+      <c r="DC2" s="93"/>
+      <c r="DD2" s="93"/>
+      <c r="DE2" s="93"/>
     </row>
     <row r="3" spans="1:109">
       <c r="A3" t="s">
@@ -37784,13 +37784,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="22.8125" customWidth="1"/>
-    <col min="5" max="8" width="22.8125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.8125" customWidth="1"/>
-    <col min="10" max="10" width="13.8125" customWidth="1"/>
-    <col min="12" max="12" width="15.8125" customWidth="1"/>
-    <col min="14" max="14" width="16.1875" customWidth="1"/>
-    <col min="40" max="40" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="8" width="22.875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="40" max="40" width="12.25" bestFit="1" customWidth="1"/>
     <col min="49" max="54" width="11" style="74"/>
   </cols>
   <sheetData>
@@ -37823,26 +37823,26 @@
         <f>Constants!B26</f>
         <v>5.1666610449267569E-7</v>
       </c>
-      <c r="AP2" s="87" t="s">
+      <c r="AP2" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="88" t="s">
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AW2" s="90" t="s">
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AW2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="89" t="s">
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="str">
@@ -42922,7 +42922,7 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -43019,7 +43019,7 @@
         <v>9.170520780000001E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1">
       <c r="A9" s="25" t="s">
         <v>53</v>
       </c>
@@ -43029,7 +43029,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" thickBot="1"/>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>24</v>
@@ -43111,7 +43111,7 @@
         <v>1.7442466578521214E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -43147,7 +43147,7 @@
         <v>5.6732610254575369E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.149999999999999" thickBot="1"/>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>40</v>
@@ -43188,7 +43188,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:14" ht="16.5" thickBot="1">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -43209,11 +43209,11 @@
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="87">
         <f>IF($A20="MITh-1",H20,IF(A20="MITh-2",M20,"Please choose 'MITh-1' or 'MITh-2'"))</f>
         <v>13.401493237828435</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="88">
         <f>IF($A20="MITh-1",I20,IF($A20="MITh-2",N20,"Please choose 'MITh-1' or 'MITh-2'"))</f>
         <v>2.3386571119730984E-3</v>
       </c>
@@ -43242,16 +43242,16 @@
         <v>2.3386571119730984E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:14" ht="16.5" thickBot="1">
       <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="87">
         <f>IF($A20="MITh-1",H21,IF(A20="MITh-2",M21,"Please choose 'MITh-1' or 'MITh-2'"))</f>
         <v>4.9678648462572063E-2</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="88">
         <f>IF($A20="MITh-1",I21,IF($A20="MITh-2",N21,"Please choose 'MITh-1' or 'MITh-2'"))</f>
         <v>6.282810166208022E-6</v>
       </c>
@@ -43280,16 +43280,16 @@
         <v>6.282810166208022E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:14" ht="16.5" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="93">
+      <c r="C22" s="89">
         <f>C21/C20</f>
         <v>3.7069487392900361E-3</v>
       </c>
-      <c r="D22" s="94"/>
+      <c r="D22" s="90"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
@@ -43566,13 +43566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="12.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44300,7 +44300,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6875" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
